--- a/汽柴煤油2.0/data_input/欧洲柴油单一利润.xlsx
+++ b/汽柴煤油2.0/data_input/欧洲柴油单一利润.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4121"/>
+  <dimension ref="A1:D4124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53982,13 +53982,53 @@
         <v>45954</v>
       </c>
       <c r="B4121" t="n">
-        <v>26.9</v>
+        <v>28.32</v>
       </c>
       <c r="C4121" t="n">
-        <v>24.57</v>
+        <v>23.25</v>
       </c>
       <c r="D4121" t="n">
-        <v>2.5728</v>
+        <v>5.2111</v>
+      </c>
+    </row>
+    <row r="4122">
+      <c r="A4122" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B4122" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="C4122" t="inlineStr"/>
+      <c r="D4122" t="n">
+        <v>5.2111</v>
+      </c>
+    </row>
+    <row r="4123">
+      <c r="A4123" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B4123" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="C4123" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="D4123" t="n">
+        <v>5.7891</v>
+      </c>
+    </row>
+    <row r="4124">
+      <c r="A4124" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B4124" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="C4124" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="D4124" t="n">
+        <v>3.4737</v>
       </c>
     </row>
   </sheetData>
